--- a/Job Center/Job/Job List.xlsx
+++ b/Job Center/Job/Job List.xlsx
@@ -1286,23 +1286,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1351,23 +1338,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1416,23 +1390,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1481,23 +1442,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1546,23 +1494,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1611,23 +1546,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1676,23 +1598,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2973,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
